--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118031.699762783</v>
+        <v>20787220.69253051</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118031.699762783</v>
+        <v>20787220.69253051</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3901.915081601397</v>
+        <v>376617.1137531033</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3901.915081601397</v>
+        <v>376617.1137531033</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035523701.553342</v>
+        <v>42190511.82222396</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8094.326268052983</v>
+        <v>941097.2355413777</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15536.07398411318</v>
+        <v>1787937.50603479</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23022.4357230145</v>
+        <v>2634777.776528203</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30697.0544381655</v>
+        <v>3483769.261717113</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38261.60868556265</v>
+        <v>4332490.207250371</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45964.55008640372</v>
+        <v>5181211.152783626</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53723.10220116875</v>
+        <v>6029932.098316878</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61265.35631463986</v>
+        <v>6878653.043850131</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68937.61653158645</v>
+        <v>7726959.298465436</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76499.61848506812</v>
+        <v>8575326.468101624</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84059.57722002483</v>
+        <v>9423693.637737818</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91493.85023696086</v>
+        <v>10270103.55991917</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98872.54968537588</v>
+        <v>11116763.39211537</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106549.6727602943</v>
+        <v>11926567.72511634</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114200.9346504088</v>
+        <v>12740047.3252197</v>
       </c>
     </row>
   </sheetData>
@@ -27040,25 +27040,25 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>362</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>375</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
